--- a/biology/Botanique/Bohemia_Gold/Bohemia_Gold.xlsx
+++ b/biology/Botanique/Bohemia_Gold/Bohemia_Gold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bohemia Gold est un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gold Bohemia
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Calibre: moyen à gros (95 mm - 330 g)
 Peau: vert et jaune à maturité, avec lenticelles
@@ -575,7 +591,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bohemia Gold est un mutant du cultivar Rubin.
 </t>
@@ -606,10 +624,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Variété diploïde.
-Pollinisée par: Alkmène, Cox's Orange Pippin, Discovery, Reinette de Landsberg, Ontario, Transparente Jaune[1].
+Pollinisée par: Alkmène, Cox's Orange Pippin, Discovery, Reinette de Landsberg, Ontario, Transparente Jaune.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivée en gobelets ou fuseaux alignés dans le viridarium de petits jardins familiaux.
 Maturité: fin octobre.
